--- a/Verithus/Documentação/PROC.xlsx
+++ b/Verithus/Documentação/PROC.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="11910" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="11910" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Plan2" sheetId="2" r:id="rId1"/>
     <sheet name="Plan1" sheetId="1" r:id="rId2"/>
     <sheet name="Plan4" sheetId="4" r:id="rId3"/>
     <sheet name="Plan3" sheetId="3" r:id="rId4"/>
+    <sheet name="Plan6" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="275">
   <si>
     <t>SEQ</t>
   </si>
@@ -852,13 +853,16 @@
   </si>
   <si>
     <t>Não Usado Excluir</t>
+  </si>
+  <si>
+    <t>NOME PROC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,6 +871,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
@@ -909,7 +929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -920,11 +940,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1021,33 +1106,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="84000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="20000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1252,11 +1311,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="207117328"/>
-        <c:axId val="207115648"/>
+        <c:axId val="107017536"/>
+        <c:axId val="107018096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207117328"/>
+        <c:axId val="107017536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,7 +1353,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207115648"/>
+        <c:crossAx val="107018096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1302,7 +1361,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207115648"/>
+        <c:axId val="107018096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,7 +1371,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207117328"/>
+        <c:crossAx val="107017536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2557,7 +2616,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -2628,16 +2687,28 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E66" totalsRowShown="0">
   <autoFilter ref="A1:E66"/>
   <sortState ref="A2:E66">
-    <sortCondition ref="B1:B66"/>
+    <sortCondition ref="D1:D66"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" name="SEQ"/>
     <tableColumn id="2" name="NOME ATUAL"/>
     <tableColumn id="3" name="NOME "/>
-    <tableColumn id="4" name="NOVO NOME" dataDxfId="0">
+    <tableColumn id="4" name="NOVO NOME" dataDxfId="5">
       <calculatedColumnFormula>CONCATENATE("SPVRT",Plan3!B1,"_",Tabela1[[#This Row],[NOME ]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="TIPO"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:C66" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:C66"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="SEQ" dataDxfId="4"/>
+    <tableColumn id="2" name="NOME PROC" dataDxfId="3"/>
+    <tableColumn id="3" name="TIPO" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2982,10 +3053,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B66"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3017,1172 +3088,1172 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B1,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT001_BENEFICIO_PR_EXCLUIR</v>
+      </c>
+      <c r="E2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B2,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT002_BENEFICIO_PR_INCLUIR</v>
+      </c>
+      <c r="E3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B3,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT003_CIDADE_PR_SELECIONAR</v>
+      </c>
+      <c r="E4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B4,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT004_CONTRIBUICAO_SINDICAL_PR_ALTERAR</v>
+      </c>
+      <c r="E5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B5,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT005_CONTRIBUICAO_SINDICAL_PR_EXCLUIR</v>
+      </c>
+      <c r="E6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B6,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT006_CONTRIBUICAO_SINDICAL_PR_INCLUIR</v>
+      </c>
+      <c r="E7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B7,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT007_CONTRIBUICAO_SINDICAL_PR_SELECIONAR</v>
+      </c>
+      <c r="E8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B8,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT008_DADOS_ADMISSAO_PR_ALTERAR</v>
+      </c>
+      <c r="E9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B9,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT009_DADOS_ADMISSAO_PR_INCLUIR</v>
+      </c>
+      <c r="E10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B10,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT010_DADOS_ADMISSAO_PR_SELECIONAR</v>
+      </c>
+      <c r="E11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B11,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT011_DADOS_DEMISSAO_PR_ALTERAR</v>
+      </c>
+      <c r="E12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B12,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT012_DADOS_DEMISSAO_PR_INCLUIR</v>
+      </c>
+      <c r="E13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B13,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT013_DADOS_DEMISSAO_PR_SELECIONAR</v>
+      </c>
+      <c r="E14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B14,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT014_DEPENDENTE_PR_ALTERAR</v>
+      </c>
+      <c r="E15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B15,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT015_DEPENDENTE_PR_EXCLUIR</v>
+      </c>
+      <c r="E16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B16,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT016_DEPENDENTE_PR_INCLUIR</v>
+      </c>
+      <c r="E17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B17,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT017_DEPENDENTE_PR_SELECIONAR</v>
+      </c>
+      <c r="E18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B18,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT018_EMPRESA_PR_ALTERAR</v>
+      </c>
+      <c r="E19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B19,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT019_EMPRESA_PR_EXCLUIR</v>
+      </c>
+      <c r="E20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B20,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT020_EMPRESA_PR_INCLUIR</v>
+      </c>
+      <c r="E21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B21,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT021_EMPRESA_PR_SELECIONAR</v>
+      </c>
+      <c r="E22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B22,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT022_ESTADO_CIVIL_PR_SELECIONAR</v>
+      </c>
+      <c r="E23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B23,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT023_ESTADO_PR_SELECIONAR</v>
+      </c>
+      <c r="E24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B24,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT024_FUNCIONARIO_PR_ALTERAR</v>
+      </c>
+      <c r="E25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B25,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT025_FUNCIONARIO_PR_EXCLUIR</v>
+      </c>
+      <c r="E26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B26,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT026_FUNCIONARIO_PR_INCLUIR</v>
+      </c>
+      <c r="E27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B27,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT027_FUNCIONARIO_PR_SELECIONAR</v>
+      </c>
+      <c r="E28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B28,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT028_LOG_PR_INCLUIR</v>
+      </c>
+      <c r="E29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B29,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT029_PAIS_PR_SELECIONAR</v>
+      </c>
+      <c r="E30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B30,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT030_SINDICATO_PR_EXCLUIR</v>
+      </c>
+      <c r="E31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B31,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT031_SINDICATO_PR_INCLUIR</v>
+      </c>
+      <c r="E32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B32,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT032_SINDICATO_PR_SELECIONAR</v>
+      </c>
+      <c r="E33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B33,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT033_SISTEMA_PR_INCLUIR</v>
+      </c>
+      <c r="E34" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B34,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT034_STATUS_PR_SELECIONAR</v>
+      </c>
+      <c r="E35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B35,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT035_TIPO_ACESSO_PR_SELECIONAR</v>
+      </c>
+      <c r="E36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B36,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT036_TIPO_BANCO_PR_SELECIONAR</v>
+      </c>
+      <c r="E37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B37,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT037_TIPO_BENEFICIO_PR_ALTERAR</v>
+      </c>
+      <c r="E38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B38,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT038_TIPO_BENEFICIO_PR_EXCLUIR</v>
+      </c>
+      <c r="E39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B39,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT039_TIPO_BENEFICIO_PR_INCLUIR</v>
+      </c>
+      <c r="E40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B40,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT040_TIPO_BENEFICIO_PR_SELECIONAR</v>
+      </c>
+      <c r="E41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B41,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT041_TIPO_CABELO_PR_SELECIONAR</v>
+      </c>
+      <c r="E42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B42,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT042_TIPO_CARGO_PR_EXCLUIR</v>
+      </c>
+      <c r="E43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B43,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT043_TIPO_CARGO_PR_INCLUIR</v>
+      </c>
+      <c r="E44" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B44,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT044_TIPO_CARGO_PR_SELECIONAR</v>
+      </c>
+      <c r="E45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B45,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT045_TIPO_CONTATO_PR_SELECIONAR</v>
+      </c>
+      <c r="E46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B46,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT046_TIPO_COR_PR_SELECIONAR</v>
+      </c>
+      <c r="E47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B47,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT047_TIPO_ENDERECO_PR_SELECIONAR</v>
+      </c>
+      <c r="E48" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B48,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT048_TIPO_FORMA_PAGAMENTO_PR_EXCLUIR</v>
+      </c>
+      <c r="E49" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B49,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT049_TIPO_FORMA_PAGAMENTO_PR_INCLUIR</v>
+      </c>
+      <c r="E50" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B50,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT050_TIPO_FORMA_PAGAMENTO_PR_SELECIONAR</v>
+      </c>
+      <c r="E51" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B51,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT051_TIPO_FUNCIONALIDADE_PR_INCLUIR</v>
+      </c>
+      <c r="E52" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B52,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT052_TIPO_LOGRADOURO_PR_SELECIONAR</v>
+      </c>
+      <c r="E53" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B53,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT053_TIPO_OLHO_PR_SELECIONAR</v>
+      </c>
+      <c r="E54" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B54,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT054_TIPO_PARENTESCO_PR_SELECIONAR</v>
+      </c>
+      <c r="E55" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B55,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT055_TIPO_SECAO_PR_EXCLUIR</v>
+      </c>
+      <c r="E56" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B56,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT056_TIPO_SECAO_PR_INCLUIR</v>
+      </c>
+      <c r="E57" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B57,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT057_TIPO_SECAO_PR_SELECIONAR</v>
+      </c>
+      <c r="E58" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B58,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT058_TIPO_TAREFA_PR_EXCLUIR</v>
+      </c>
+      <c r="E59" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B59,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT059_TIPO_TAREFA_PR_INCLUIR</v>
+      </c>
+      <c r="E60" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B60,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT060_TIPO_TAREFA_PR_SELECIONAR</v>
+      </c>
+      <c r="E61" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B61,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT061_USUARIOS_PR_ALTERAR</v>
+      </c>
+      <c r="E62" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B62,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT062_USUARIOS_PR_EXCLUIR</v>
+      </c>
+      <c r="E63" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" s="5" t="str">
+        <f>CONCATENATE("SPVRT",Plan3!B63,"_",Tabela1[[#This Row],[NOME ]])</f>
+        <v>SPVRT063_USUARIOS_PR_INCLUIR</v>
+      </c>
+      <c r="E64" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C65" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="5" t="str">
+      <c r="D65" s="5" t="str">
         <f>CONCATENATE("SPVRT",Plan3!B64,"_",Tabela1[[#This Row],[NOME ]])</f>
         <v>SPVRT064_USUARIOS_PR_SELECIONAR</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E65" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B63,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT063_USUARIOS_PR_INCLUIR</v>
-      </c>
-      <c r="E3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B66" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C66" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D66" s="5" t="str">
         <f>CONCATENATE("SPVRT",Plan3!B65,"_",Tabela1[[#This Row],[NOME ]])</f>
         <v>SPVRT065_USUARIOS_PR_VERIFICAR</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E66" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B61,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT061_USUARIOS_PR_ALTERAR</v>
-      </c>
-      <c r="E5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>62</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B62,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT062_USUARIOS_PR_EXCLUIR</v>
-      </c>
-      <c r="E6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B35,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT035_TIPO_ACESSO_PR_SELECIONAR</v>
-      </c>
-      <c r="E7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B27,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT027_FUNCIONARIO_PR_SELECIONAR</v>
-      </c>
-      <c r="E8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B26,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT026_FUNCIONARIO_PR_INCLUIR</v>
-      </c>
-      <c r="E9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B25,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT025_FUNCIONARIO_PR_EXCLUIR</v>
-      </c>
-      <c r="E10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B24,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT024_FUNCIONARIO_PR_ALTERAR</v>
-      </c>
-      <c r="E11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B17,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT017_DEPENDENTE_PR_SELECIONAR</v>
-      </c>
-      <c r="E12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B16,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT016_DEPENDENTE_PR_INCLUIR</v>
-      </c>
-      <c r="E13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B14,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT014_DEPENDENTE_PR_ALTERAR</v>
-      </c>
-      <c r="E14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B15,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT015_DEPENDENTE_PR_EXCLUIR</v>
-      </c>
-      <c r="E15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B40,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT040_TIPO_BENEFICIO_PR_SELECIONAR</v>
-      </c>
-      <c r="E16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B39,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT039_TIPO_BENEFICIO_PR_INCLUIR</v>
-      </c>
-      <c r="E17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B37,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT037_TIPO_BENEFICIO_PR_ALTERAR</v>
-      </c>
-      <c r="E18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B38,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT038_TIPO_BENEFICIO_PR_EXCLUIR</v>
-      </c>
-      <c r="E19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B2,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT002_BENEFICIO_PR_INCLUIR</v>
-      </c>
-      <c r="E20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B1,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT001_BENEFICIO_PR_EXCLUIR</v>
-      </c>
-      <c r="E21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>54</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B54,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT054_TIPO_PARENTESCO_PR_SELECIONAR</v>
-      </c>
-      <c r="E22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B44,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT044_TIPO_CARGO_PR_SELECIONAR</v>
-      </c>
-      <c r="E23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B46,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT046_TIPO_COR_PR_SELECIONAR</v>
-      </c>
-      <c r="E24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B34,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT034_STATUS_PR_SELECIONAR</v>
-      </c>
-      <c r="E25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>41</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B41,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT041_TIPO_CABELO_PR_SELECIONAR</v>
-      </c>
-      <c r="E26" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B53,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT053_TIPO_OLHO_PR_SELECIONAR</v>
-      </c>
-      <c r="E27" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>43</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B43,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT043_TIPO_CARGO_PR_INCLUIR</v>
-      </c>
-      <c r="E28" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>42</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B42,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT042_TIPO_CARGO_PR_EXCLUIR</v>
-      </c>
-      <c r="E29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B57,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT057_TIPO_SECAO_PR_SELECIONAR</v>
-      </c>
-      <c r="E30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B56,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT056_TIPO_SECAO_PR_INCLUIR</v>
-      </c>
-      <c r="E31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B55,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT055_TIPO_SECAO_PR_EXCLUIR</v>
-      </c>
-      <c r="E32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>59</v>
-      </c>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B59,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT059_TIPO_TAREFA_PR_INCLUIR</v>
-      </c>
-      <c r="E33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>60</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B60,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT060_TIPO_TAREFA_PR_SELECIONAR</v>
-      </c>
-      <c r="E34" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>23</v>
-      </c>
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B23,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT023_ESTADO_PR_SELECIONAR</v>
-      </c>
-      <c r="E35" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>3</v>
-      </c>
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B3,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT003_CIDADE_PR_SELECIONAR</v>
-      </c>
-      <c r="E36" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>58</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B58,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT058_TIPO_TAREFA_PR_EXCLUIR</v>
-      </c>
-      <c r="E37" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>50</v>
-      </c>
-      <c r="B38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B50,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT050_TIPO_FORMA_PAGAMENTO_PR_SELECIONAR</v>
-      </c>
-      <c r="E38" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>49</v>
-      </c>
-      <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B49,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT049_TIPO_FORMA_PAGAMENTO_PR_INCLUIR</v>
-      </c>
-      <c r="E39" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>48</v>
-      </c>
-      <c r="B40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B48,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT048_TIPO_FORMA_PAGAMENTO_PR_EXCLUIR</v>
-      </c>
-      <c r="E40" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>12</v>
-      </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B12,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT012_DADOS_DEMISSAO_PR_INCLUIR</v>
-      </c>
-      <c r="E41" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>7</v>
-      </c>
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B7,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT007_CONTRIBUICAO_SINDICAL_PR_SELECIONAR</v>
-      </c>
-      <c r="E42" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>6</v>
-      </c>
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B6,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT006_CONTRIBUICAO_SINDICAL_PR_INCLUIR</v>
-      </c>
-      <c r="E43" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" t="s">
-        <v>111</v>
-      </c>
-      <c r="D44" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B4,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT004_CONTRIBUICAO_SINDICAL_PR_ALTERAR</v>
-      </c>
-      <c r="E44" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B5,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT005_CONTRIBUICAO_SINDICAL_PR_EXCLUIR</v>
-      </c>
-      <c r="E45" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>32</v>
-      </c>
-      <c r="B46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B32,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT032_SINDICATO_PR_SELECIONAR</v>
-      </c>
-      <c r="E46" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>31</v>
-      </c>
-      <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B31,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT031_SINDICATO_PR_INCLUIR</v>
-      </c>
-      <c r="E47" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>30</v>
-      </c>
-      <c r="B48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B30,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT030_SINDICATO_PR_EXCLUIR</v>
-      </c>
-      <c r="E48" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B47,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT047_TIPO_ENDERECO_PR_SELECIONAR</v>
-      </c>
-      <c r="E49" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>52</v>
-      </c>
-      <c r="B50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B52,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT052_TIPO_LOGRADOURO_PR_SELECIONAR</v>
-      </c>
-      <c r="E50" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>45</v>
-      </c>
-      <c r="B51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B45,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT045_TIPO_CONTATO_PR_SELECIONAR</v>
-      </c>
-      <c r="E51" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>29</v>
-      </c>
-      <c r="B52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" t="s">
-        <v>119</v>
-      </c>
-      <c r="D52" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B29,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT029_PAIS_PR_SELECIONAR</v>
-      </c>
-      <c r="E52" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>22</v>
-      </c>
-      <c r="B53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B22,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT022_ESTADO_CIVIL_PR_SELECIONAR</v>
-      </c>
-      <c r="E53" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>36</v>
-      </c>
-      <c r="B54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B36,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT036_TIPO_BANCO_PR_SELECIONAR</v>
-      </c>
-      <c r="E54" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>33</v>
-      </c>
-      <c r="B55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" t="s">
-        <v>122</v>
-      </c>
-      <c r="D55" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B33,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT033_SISTEMA_PR_INCLUIR</v>
-      </c>
-      <c r="E55" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>51</v>
-      </c>
-      <c r="B56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" t="s">
-        <v>123</v>
-      </c>
-      <c r="D56" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B51,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT051_TIPO_FUNCIONALIDADE_PR_INCLUIR</v>
-      </c>
-      <c r="E56" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>28</v>
-      </c>
-      <c r="B57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" t="s">
-        <v>124</v>
-      </c>
-      <c r="D57" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B28,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT028_LOG_PR_INCLUIR</v>
-      </c>
-      <c r="E57" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>9</v>
-      </c>
-      <c r="B58" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" t="s">
-        <v>125</v>
-      </c>
-      <c r="D58" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B9,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT009_DADOS_ADMISSAO_PR_INCLUIR</v>
-      </c>
-      <c r="E58" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>8</v>
-      </c>
-      <c r="B59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" t="s">
-        <v>126</v>
-      </c>
-      <c r="D59" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B8,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT008_DADOS_ADMISSAO_PR_ALTERAR</v>
-      </c>
-      <c r="E59" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>10</v>
-      </c>
-      <c r="B60" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" t="s">
-        <v>127</v>
-      </c>
-      <c r="D60" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B10,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT010_DADOS_ADMISSAO_PR_SELECIONAR</v>
-      </c>
-      <c r="E60" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>13</v>
-      </c>
-      <c r="B61" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" t="s">
-        <v>128</v>
-      </c>
-      <c r="D61" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B13,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT013_DADOS_DEMISSAO_PR_SELECIONAR</v>
-      </c>
-      <c r="E61" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>11</v>
-      </c>
-      <c r="B62" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B11,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT011_DADOS_DEMISSAO_PR_ALTERAR</v>
-      </c>
-      <c r="E62" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>21</v>
-      </c>
-      <c r="B63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" t="s">
-        <v>130</v>
-      </c>
-      <c r="D63" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B21,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT021_EMPRESA_PR_SELECIONAR</v>
-      </c>
-      <c r="E63" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>20</v>
-      </c>
-      <c r="B64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B20,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT020_EMPRESA_PR_INCLUIR</v>
-      </c>
-      <c r="E64" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>18</v>
-      </c>
-      <c r="B65" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B18,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT018_EMPRESA_PR_ALTERAR</v>
-      </c>
-      <c r="E65" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>19</v>
-      </c>
-      <c r="B66" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" t="s">
-        <v>133</v>
-      </c>
-      <c r="D66" s="5" t="str">
-        <f>CONCATENATE("SPVRT",Plan3!B19,"_",Tabela1[[#This Row],[NOME ]])</f>
-        <v>SPVRT019_EMPRESA_PR_EXCLUIR</v>
-      </c>
-      <c r="E66" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4198,8 +4269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4741,7 +4812,7 @@
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B65"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5269,4 +5340,753 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>